--- a/Excel/ScenarioSelect.xlsx
+++ b/Excel/ScenarioSelect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\Perforce\wk_program_4958\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89023021-6AAA-4E25-9DE6-7119C156118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3133189-B2B8-4963-B4D4-04500F9A6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioSelect" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>None</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>SelectEnergy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 쓰러뜨리고 해결했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 무사히 넘어갔습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 위험에 빠졌습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -474,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -487,11 +506,12 @@
     <col min="3" max="3" width="10.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -510,8 +530,11 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1000010</v>
       </c>
@@ -530,8 +553,11 @@
       <c r="F2" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1000010</v>
       </c>
@@ -550,8 +576,11 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1000010</v>
       </c>
@@ -570,46 +599,54 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/ScenarioSelect.xlsx
+++ b/Excel/ScenarioSelect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3133189-B2B8-4963-B4D4-04500F9A6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A80848-2950-4348-87B5-B9945D925955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>None</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -80,19 +71,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>적을 쓰러뜨리고 해결했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 무사히 넘어갔습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 위험에 빠졌습니다.</t>
+    <t>ResultTextContentId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +475,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -531,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -553,8 +532,8 @@
       <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
+      <c r="G2" s="3">
+        <v>1000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -576,8 +555,8 @@
       <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
+      <c r="G3" s="3">
+        <v>1000002</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -599,8 +578,8 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
+      <c r="G4" s="3">
+        <v>1000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
